--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163058</v>
+        <v>2386481.608786987</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>236.0114229985921</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>95.41907783822376</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>65.23699284296826</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>313.4020972507752</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>116.9911193017153</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>107.0058887732178</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>112.8566199863818</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>117.1716142576513</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>98.93935591435849</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40.40104508044834</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>9.477784481252916</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.05355358057936</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>167.3637267182086</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>189.2380031216297</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.44930784064623</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>65.44930784064623</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>140.2569953879521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>173.5740289795531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>95.05806357631906</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7.069540131683943</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>238.764112098793</v>
+        <v>101.1527559011483</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.76515480631789</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>121.625647307536</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>160.5201563761539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.210253911481</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1138.210253911481</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>779.9445553047301</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>779.9445553047301</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>772.9990545555266</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2545.737494641418</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2327.102827613481</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.210253911481</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>373.0594214943678</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>373.0594214943678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>373.0594214943678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943678</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.00952757579</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2578.976243238712</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2325.214457876803</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2325.214457876803</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.214457876803</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.748699615723</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.609367639912</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>477.919485916526</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>614.1323983616041</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>392.1589755202269</v>
+        <v>1386.160086888608</v>
       </c>
       <c r="C8" t="n">
-        <v>392.1589755202269</v>
+        <v>1386.160086888608</v>
       </c>
       <c r="D8" t="n">
-        <v>392.1589755202269</v>
+        <v>1386.160086888608</v>
       </c>
       <c r="E8" t="n">
-        <v>392.1589755202269</v>
+        <v>1000.371834290364</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>589.3859295007564</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>172.2981477371839</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>172.2981477371839</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>118.6940293903968</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>522.1611424104423</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>661.4897982516954</v>
+        <v>1094.463253419559</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1475.496879136949</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2226.195448434925</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>1895.132561091354</v>
+        <v>2112.394500419802</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.36390582124</v>
+        <v>1759.625845149688</v>
       </c>
       <c r="X8" t="n">
-        <v>1168.89814756016</v>
+        <v>1386.160086888608</v>
       </c>
       <c r="Y8" t="n">
-        <v>778.7588155843487</v>
+        <v>1386.160086888608</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1465.114432469609</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2014.550441222332</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.072212679962</v>
+        <v>389.5551593455652</v>
       </c>
       <c r="C10" t="n">
-        <v>226.072212679962</v>
+        <v>389.5551593455652</v>
       </c>
       <c r="D10" t="n">
-        <v>226.072212679962</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>235.6457323579952</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>226.072212679962</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="X10" t="n">
-        <v>226.072212679962</v>
+        <v>571.203624175805</v>
       </c>
       <c r="Y10" t="n">
-        <v>226.072212679962</v>
+        <v>571.203624175805</v>
       </c>
     </row>
     <row r="11">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>565.7099969556945</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>417.7969033733013</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>270.906955875391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2277.908814167929</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2058.30734919087</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1786.311582407852</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3025.687952571559</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>3246.480531715089</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>3025.687952571559</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3791.319359123406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3189.272672481338</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C34" t="n">
-        <v>3020.336489553431</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D34" t="n">
-        <v>2870.219850141096</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E34" t="n">
-        <v>2722.306756558703</v>
+        <v>556.7554906167678</v>
       </c>
       <c r="F34" t="n">
-        <v>2575.416809060792</v>
+        <v>409.8655431188574</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>242.6694438337374</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>100.9576126759355</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660706</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381638</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381638</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.886674680705</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.202186474819</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W37" t="n">
-        <v>1411.785016437858</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X37" t="n">
-        <v>1183.795465539841</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.0028863963104</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2497.745796000626</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2184.16844972361</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1895.093223067808</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1640.408734861921</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1350.99156482496</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404219</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2913.946970978147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>3511.325458604699</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159306</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>43.95636118853439</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>312.2066704284443</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>285.1863782336312</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.47058471168948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>13.66255928343602</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>96.94647126761447</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>67.07129414993841</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>85.45266000108506</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>112.9489693570379</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>70.46607471594979</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>74.1962961868816</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>47.42036229045112</v>
+        <v>185.0317184880959</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>204.6402955209704</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>26.98982571067634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>126.0028419604371</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26325,37 +26325,37 @@
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
@@ -26456,10 +26456,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-266968.0453427747</v>
       </c>
       <c r="C6" t="n">
-        <v>322999.8338717701</v>
+        <v>322999.8338717702</v>
       </c>
       <c r="D6" t="n">
         <v>167196.0277779747</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038919</v>
+        <v>-272840.1872582489</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769146</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769146</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769147</v>
+        <v>498212.5041225573</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843215</v>
+        <v>321789.2849299644</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769147</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769143</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.3726688556</v>
+        <v>374003.993414499</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769141</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225573</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225578</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>177.7727470222029</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>78.99663497074778</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>186.9006504808597</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>69.33174441270535</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>99.45720105594246</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>39.42807387335134</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>112.8530354026554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>1.324426636239025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>152.2154303079421</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>108.214427937764</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>277.0452138553381</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1777416630679</v>
+        <v>568.8264345569165</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744729</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359103</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.8560084902126</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>752.2150000824574</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543341</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>65.40509855558822</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>452.9426864297102</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9738807864583</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>416.6233618831937</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524547</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.501032152577</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.87423440419106</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>620.8732879991242</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997513</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2386481.608786987</v>
+        <v>2388242.139089772</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>95.41907783822376</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.80276983270129</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.4020972507752</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>262.8009166417251</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.0058887732178</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>27.794498088131</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>117.1716142576513</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.40104508044834</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,13 +1423,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>167.3637267182086</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>219.4517041866526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>99.72336853883948</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U37" t="n">
-        <v>101.1527559011483</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.741202187451</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2545.737494641418</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.102827613481</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2073.341042251573</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2073.341042251573</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2073.341042251573</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2073.341042251573</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2073.341042251573</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>730.3843579652498</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>730.3843579652498</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>730.3843579652498</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>319.3984531756423</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862885</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.919485916526</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>477.919485916526</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>477.919485916526</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.160086888608</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C8" t="n">
-        <v>1386.160086888608</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D8" t="n">
-        <v>1386.160086888608</v>
+        <v>878.792389802288</v>
       </c>
       <c r="E8" t="n">
-        <v>1000.371834290364</v>
+        <v>493.0041372040437</v>
       </c>
       <c r="F8" t="n">
-        <v>589.3859295007564</v>
+        <v>82.01823241443617</v>
       </c>
       <c r="G8" t="n">
-        <v>172.2981477371839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>172.2981477371839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.463253419559</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.496879136949</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419802</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149688</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.160086888608</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.160086888608</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389.5551593455652</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>389.5551593455652</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4998,16 +4998,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>571.203624175805</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.203624175805</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5123,22 +5123,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5761,7 +5761,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.721406539404</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>854.7852236114967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>704.6685841991609</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>556.7554906167678</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>409.8655431188574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6694438337374</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.369871369643</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>700.7543264856228</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1875.286579600257</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1620.602091394371</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.18492135741</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.195370459393</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.4027913158625</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284443</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>67.07129414993841</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>117.6820817884488</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U37" t="n">
-        <v>185.0317184880959</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675044</v>
@@ -26355,7 +26355,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-266968.0453427747</v>
       </c>
       <c r="C6" t="n">
-        <v>322999.8338717702</v>
+        <v>322999.8338717701</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779747</v>
+        <v>167196.0277779745</v>
       </c>
       <c r="E6" t="n">
-        <v>-272840.1872582489</v>
+        <v>-272527.5459293278</v>
       </c>
       <c r="F6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="G6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514785</v>
       </c>
       <c r="H6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.145451479</v>
       </c>
       <c r="I6" t="n">
-        <v>498212.5041225573</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="J6" t="n">
-        <v>321789.2849299644</v>
+        <v>322101.9262588857</v>
       </c>
       <c r="K6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.1454514785</v>
       </c>
       <c r="L6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514785</v>
       </c>
       <c r="M6" t="n">
-        <v>374003.993414499</v>
+        <v>374316.6347434205</v>
       </c>
       <c r="N6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="O6" t="n">
-        <v>498212.5041225573</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="P6" t="n">
-        <v>498212.5041225578</v>
+        <v>498525.1454514787</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>78.99663497074778</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592655</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>51.04847948014728</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.33174441270535</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>150.9832533790699</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>39.42807387335134</v>
+        <v>26.02192683660465</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>385.1224058578058</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>1.324426636239025</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>108.214427937764</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.14791526147827</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>568.8264345569165</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730626</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297102</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>430.2720547770423</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
